--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alliorem/Library/CloudStorage/Dropbox/INRAe/Baby/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alliorem/Library/CloudStorage/Dropbox/INRAe/Baby/Foosball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A55D8-DC4F-1849-A5FD-D276400851BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50865AEA-DE55-8E4F-92AE-313BA2564A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{33B8A59D-92ED-EA49-8E77-BE3B04AE3F80}"/>
   </bookViews>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E58B18-ED79-3148-9A33-5A1CB1510B39}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2022,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>46059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alliorem/Library/CloudStorage/Dropbox/INRAe/Baby/Foosball/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50865AEA-DE55-8E4F-92AE-313BA2564A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{33B8A59D-92ED-EA49-8E77-BE3B04AE3F80}"/>
+    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="matchs" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">matchs!$A$1:$F$116</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="37">
   <si>
     <t>date</t>
   </si>
@@ -146,12 +143,15 @@
   </si>
   <si>
     <t>Maximilien</t>
+  </si>
+  <si>
+    <t>Tom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -201,10 +201,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -212,7 +212,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -291,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -343,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -537,21 +537,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E58B18-ED79-3148-9A33-5A1CB1510B39}">
-  <dimension ref="A1:G74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -562,7 +562,7 @@
     <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>46048</v>
       </c>
@@ -602,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>46048</v>
       </c>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>46049</v>
       </c>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>46049</v>
       </c>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>46049</v>
       </c>
@@ -682,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>46049</v>
       </c>
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>46049</v>
       </c>
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>46049</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>46049</v>
       </c>
@@ -762,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>46049</v>
       </c>
@@ -782,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>46049</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>46049</v>
       </c>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>46050</v>
       </c>
@@ -842,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>46050</v>
       </c>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>46050</v>
       </c>
@@ -882,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>46050</v>
       </c>
@@ -902,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>46050</v>
       </c>
@@ -922,7 +922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>46051</v>
       </c>
@@ -942,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>46052</v>
       </c>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>46052</v>
       </c>
@@ -982,7 +982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>46052</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>46052</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>46052</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>46052</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>46052</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>46052</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>46052</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>46052</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>46052</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>46052</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>46052</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="4">
         <v>46052</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>46052</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="4">
         <v>46052</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="4">
         <v>46052</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="4">
         <v>46052</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>46052</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="4">
         <v>46052</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>46052</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <v>46052</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>46055</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="4">
         <v>46055</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>46055</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="4">
         <v>46056</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>46056</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="4">
         <v>46056</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="4">
         <v>46057</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>46057</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="4">
         <v>46057</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="4">
         <v>46057</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="4">
         <v>46057</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="4">
         <v>46057</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="4">
         <v>46057</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>46058</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="4">
         <v>46058</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="4">
         <v>46058</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="4">
         <v>46058</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="4">
         <v>46058</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="4">
         <v>46058</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="4">
         <v>46058</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="4">
         <v>46058</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="4">
         <v>46058</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="4">
         <v>46058</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="4">
         <v>46058</v>
       </c>
@@ -1859,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="4">
         <v>46058</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="4">
         <v>46058</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="4">
         <v>46058</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>46058</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="4">
         <v>46058</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="4">
         <v>46059</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="4">
         <v>46059</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="4">
         <v>46059</v>
       </c>
@@ -2022,13 +2022,832 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="4">
         <v>46059</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alliorem/Library/CloudStorage/Dropbox/INRAe/Baby/Foosball/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD3F1D-CF75-584E-98A2-9B88BFF317A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matchs" sheetId="1" r:id="rId1"/>
@@ -12,30 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">matchs!$A$1:$F$116</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -146,12 +142,18 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>PhilippeA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -223,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -231,6 +233,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,21 +540,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -562,7 +565,7 @@
     <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -582,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>46048</v>
       </c>
@@ -602,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>46048</v>
       </c>
@@ -622,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>46049</v>
       </c>
@@ -642,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>46049</v>
       </c>
@@ -662,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>46049</v>
       </c>
@@ -682,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>46049</v>
       </c>
@@ -702,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>46049</v>
       </c>
@@ -722,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>46049</v>
       </c>
@@ -742,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>46049</v>
       </c>
@@ -762,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>46049</v>
       </c>
@@ -782,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>46049</v>
       </c>
@@ -802,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>46049</v>
       </c>
@@ -822,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>46050</v>
       </c>
@@ -842,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>46050</v>
       </c>
@@ -862,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>46050</v>
       </c>
@@ -882,7 +885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>46050</v>
       </c>
@@ -902,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>46050</v>
       </c>
@@ -922,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>46051</v>
       </c>
@@ -942,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>46052</v>
       </c>
@@ -962,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>46052</v>
       </c>
@@ -982,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>46052</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>46052</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>46052</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>46052</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>46052</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>46052</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>46052</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>46052</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>46052</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>46052</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>46052</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>46052</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>46052</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>46052</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>46052</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>46052</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>46052</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>46052</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>46052</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>46052</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>46055</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>46055</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>46055</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>46056</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>46056</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46056</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>46057</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>46057</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>46057</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>46057</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>46057</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>46057</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>46057</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46058</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>46058</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>46058</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>46058</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>46058</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>46058</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>46058</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>46058</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>46058</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>46058</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>46058</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>46058</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>46058</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>46058</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>46058</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>46058</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>46059</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>46059</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>46059</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>46059</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>46059</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>46059</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>46059</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>46059</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>46059</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>46059</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>46059</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>46059</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>46059</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>46059</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>46059</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>46059</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>46059</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>46059</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>46059</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>46059</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>46059</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>46059</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>46059</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>46059</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>46059</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>46059</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>46059</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>46059</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>46059</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>46059</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>46059</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>46059</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>46059</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>46059</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>46059</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>46059</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>46059</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>46059</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>46059</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>46059</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>46059</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>46059</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>46059</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>46059</v>
       </c>
@@ -2840,6 +2843,126 @@
       </c>
       <c r="F114" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -155,10 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -262,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,10 +310,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,13 +329,13 @@
   </sheetPr>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L112" activeCellId="0" sqref="L112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.84"/>
@@ -2810,7 +2805,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="n">
+      <c r="A124" s="10" t="n">
         <v>46064</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -2830,7 +2825,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="n">
+      <c r="A125" s="10" t="n">
         <v>46064</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -2850,7 +2845,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+      <c r="A126" s="10" t="n">
         <v>46064</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -2870,7 +2865,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="n">
+      <c r="A127" s="10" t="n">
         <v>46064</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -2886,11 +2881,11 @@
         <v>16</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="n">
+      <c r="A128" s="10" t="n">
         <v>46065</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -2910,7 +2905,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+      <c r="A129" s="10" t="n">
         <v>46065</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -2930,7 +2925,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="n">
+      <c r="A130" s="10" t="n">
         <v>46065</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -2950,7 +2945,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="n">
+      <c r="A131" s="10" t="n">
         <v>46065</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -2970,7 +2965,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="n">
+      <c r="A132" s="10" t="n">
         <v>46066</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -2990,7 +2985,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="n">
+      <c r="A133" s="10" t="n">
         <v>46066</v>
       </c>
       <c r="B133" s="11" t="s">

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="43">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -149,15 +149,19 @@
   </si>
   <si>
     <t xml:space="preserve">JulieB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -261,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,6 +314,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,13 +339,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
@@ -3004,6 +3016,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="134" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="12" t="n">
+        <v>46069</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="12" t="n">
+        <v>46069</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="12" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="13"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="43">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -158,10 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -265,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,14 +313,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,10 +333,10 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
@@ -3017,7 +3008,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="n">
+      <c r="A134" s="10" t="n">
         <v>46069</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -3037,7 +3028,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="n">
+      <c r="A135" s="10" t="n">
         <v>46069</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -3057,7 +3048,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="n">
+      <c r="A136" s="10" t="n">
         <v>46070</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -3077,28 +3068,113 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13"/>
+      <c r="A137" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13"/>
+      <c r="A138" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13"/>
+      <c r="A139" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13"/>
+      <c r="A140" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13"/>
+      <c r="A141" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13"/>
+      <c r="A144" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="matchs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="matchs" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">matchs!$A$1:$F$116</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="41">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Loïc</t>
   </si>
   <si>
-    <t xml:space="preserve">Julie</t>
+    <t xml:space="preserve">JulieB</t>
   </si>
   <si>
     <t xml:space="preserve">TheoM</t>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">PhilippeA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JulieB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laure</t>
   </si>
 </sst>
 </file>
@@ -269,47 +263,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,29 +319,135 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="10.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -367,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>46048</v>
       </c>
@@ -387,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>46048</v>
       </c>
@@ -407,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>46049</v>
       </c>
@@ -427,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>46049</v>
       </c>
@@ -447,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>46049</v>
       </c>
@@ -467,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>46049</v>
       </c>
@@ -487,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>46049</v>
       </c>
@@ -507,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>46049</v>
       </c>
@@ -527,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>46049</v>
       </c>
@@ -547,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>46049</v>
       </c>
@@ -567,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>46049</v>
       </c>
@@ -587,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>46049</v>
       </c>
@@ -607,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>46050</v>
       </c>
@@ -627,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>46050</v>
       </c>
@@ -647,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>46050</v>
       </c>
@@ -667,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>46050</v>
       </c>
@@ -687,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>46050</v>
       </c>
@@ -707,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>46051</v>
       </c>
@@ -727,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>46052</v>
       </c>
@@ -747,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>46052</v>
       </c>
@@ -767,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>46052</v>
       </c>
@@ -787,7 +887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>46052</v>
       </c>
@@ -807,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>46052</v>
       </c>
@@ -827,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>46052</v>
       </c>
@@ -847,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>46052</v>
       </c>
@@ -867,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>46052</v>
       </c>
@@ -887,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>46052</v>
       </c>
@@ -907,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>46052</v>
       </c>
@@ -927,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>46052</v>
       </c>
@@ -947,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>46052</v>
       </c>
@@ -967,7 +1067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>46052</v>
       </c>
@@ -987,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1007,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1027,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1047,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1067,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1087,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1107,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1127,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1147,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>46052</v>
       </c>
@@ -1167,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>46055</v>
       </c>
@@ -1187,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>46055</v>
       </c>
@@ -1207,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>46055</v>
       </c>
@@ -1227,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>46056</v>
       </c>
@@ -1247,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>46056</v>
       </c>
@@ -1267,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>46056</v>
       </c>
@@ -1287,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1307,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1327,7 +1427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1347,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1367,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1387,7 +1487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1407,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>46057</v>
       </c>
@@ -1427,7 +1527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1447,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1467,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1487,7 +1587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1507,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1527,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1547,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1567,7 +1667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1587,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1607,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1627,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1647,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1667,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1687,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1707,7 +1807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1727,7 +1827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>46058</v>
       </c>
@@ -1747,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1767,7 +1867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1787,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1807,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1827,7 +1927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1847,7 +1947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1867,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1887,7 +1987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1907,7 +2007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1927,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1947,7 +2047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1967,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>46059</v>
       </c>
@@ -1987,7 +2087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2007,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2027,7 +2127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2047,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2067,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2087,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2107,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2127,7 +2227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2147,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2167,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2187,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2207,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2227,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2247,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2267,7 +2367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2287,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2307,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2327,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2347,7 +2447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2367,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2387,7 +2487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2407,7 +2507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2427,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2447,7 +2547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2467,7 +2567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2487,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2507,7 +2607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2527,7 +2627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2547,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2567,7 +2667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2587,7 +2687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2607,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>46059</v>
       </c>
@@ -2627,7 +2727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="n">
         <v>46062</v>
       </c>
@@ -2647,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="n">
         <v>46062</v>
       </c>
@@ -2667,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
         <v>46063</v>
       </c>
@@ -2687,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
         <v>46063</v>
       </c>
@@ -2707,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="n">
         <v>46063</v>
       </c>
@@ -2727,7 +2827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
         <v>46063</v>
       </c>
@@ -2747,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="n">
         <v>46064</v>
       </c>
@@ -2767,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="n">
         <v>46064</v>
       </c>
@@ -2787,7 +2887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="n">
         <v>46064</v>
       </c>
@@ -2895,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>34</v>
@@ -3007,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="n">
         <v>46069</v>
       </c>
@@ -3027,7 +3127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="n">
         <v>46069</v>
       </c>
@@ -3047,135 +3147,227 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="n">
-        <v>46070</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
         <v>46071</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="n">
         <v>46071</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="n">
         <v>46071</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="n">
         <v>46071</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
-    </row>
-    <row r="143" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7"/>
-    </row>
-    <row r="144" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
-    </row>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
+      <selection pane="topLeft" activeCell="G140" activeCellId="0" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3247,7 +3247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
         <v>46072</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="41">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G140" activeCellId="0" sqref="G140"/>
+      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147:A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3367,6 +3367,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/matchs.xlsx
+++ b/data/matchs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="40">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Maximilien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anne-LaureP</t>
   </si>
   <si>
     <t xml:space="preserve">Anna</t>
@@ -432,8 +429,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147:A149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="24" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +439,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="10.84"/>
   </cols>
@@ -1881,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>11</v>
@@ -2755,7 +2752,7 @@
         <v>20</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>13</v>
@@ -2818,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>18</v>
@@ -3021,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>10</v>
@@ -3061,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>11</v>
@@ -3138,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>18</v>
